--- a/Updatedgantt.xlsx
+++ b/Updatedgantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2689D22E-7E74-406D-9B10-4D2FB991502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -229,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -765,6 +769,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -777,28 +788,21 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -956,7 +960,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1376,32 +1380,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.26953125"/>
+    <col min="1" max="1" width="2.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>28</v>
       </c>
@@ -1428,125 +1432,125 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="63">
+      <c r="D3" s="61"/>
+      <c r="E3" s="66">
         <f>DATE(2021,6,27)</f>
         <v>44374</v>
       </c>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="66"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="63">
         <f>I5</f>
         <v>44375</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="60">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="63">
         <f>P5</f>
         <v>44382</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="60">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="63">
         <f>W5</f>
         <v>44389</v>
       </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="60">
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="63">
         <f>AD5</f>
         <v>44396</v>
       </c>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="60">
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="63">
         <f>AK5</f>
         <v>44403</v>
       </c>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="60">
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="63">
         <f>AR5</f>
         <v>44410</v>
       </c>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="60">
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="63">
         <f>AY5</f>
         <v>44417</v>
       </c>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="60">
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="63">
         <f>BF5</f>
         <v>44424</v>
       </c>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="62"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="65"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44375</v>
@@ -1772,7 +1776,7 @@
         <v>44430</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>31</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="BK7" s="29"/>
       <c r="BL7" s="29"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
@@ -2160,7 +2164,7 @@
       <c r="BK8" s="29"/>
       <c r="BL8" s="29"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>38</v>
       </c>
@@ -2240,7 +2244,7 @@
       <c r="BK9" s="29"/>
       <c r="BL9" s="29"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>39</v>
       </c>
@@ -2321,7 +2325,7 @@
       <c r="BK10" s="29"/>
       <c r="BL10" s="29"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="58" t="s">
         <v>41</v>
@@ -2400,7 +2404,7 @@
       <c r="BK11" s="29"/>
       <c r="BL11" s="29"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="58" t="s">
         <v>42</v>
@@ -2479,7 +2483,7 @@
       <c r="BK12" s="29"/>
       <c r="BL12" s="29"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="58" t="s">
         <v>50</v>
@@ -2555,7 +2559,7 @@
       <c r="BK13" s="29"/>
       <c r="BL13" s="29"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="58" t="s">
         <v>43</v>
@@ -2623,14 +2627,14 @@
       <c r="BK14" s="29"/>
       <c r="BL14" s="29"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="22">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="51">
         <f>E12+7</f>
@@ -2699,14 +2703,14 @@
       <c r="BK15" s="29"/>
       <c r="BL15" s="29"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="51">
         <f>E10+18</f>
@@ -2778,14 +2782,14 @@
       <c r="BK16" s="29"/>
       <c r="BL16" s="29"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="51">
         <f>E16+3</f>
@@ -2854,7 +2858,7 @@
       <c r="BK17" s="29"/>
       <c r="BL17" s="29"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="58" t="s">
         <v>47</v>
@@ -2922,13 +2926,15 @@
       <c r="BK18" s="29"/>
       <c r="BL18" s="29"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="58" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="22"/>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
       <c r="E19" s="51">
         <f>E17+3</f>
         <v>44399</v>
@@ -2996,7 +3002,7 @@
       <c r="BK19" s="29"/>
       <c r="BL19" s="29"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="58" t="s">
         <v>51</v>
@@ -3064,7 +3070,7 @@
       <c r="BK20" s="29"/>
       <c r="BL20" s="29"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>30</v>
       </c>
@@ -3135,7 +3141,7 @@
       <c r="BK21" s="29"/>
       <c r="BL21" s="29"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>29</v>
       </c>
@@ -3208,23 +3214,18 @@
       <c r="BK22" s="31"/>
       <c r="BL22" s="31"/>
     </row>
-    <row r="23" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -3232,6 +3233,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D22">
     <cfRule type="dataBar" priority="14">
@@ -3274,13 +3280,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I1" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -3313,101 +3319,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="87.140625" style="33" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="34"/>
     </row>
-    <row r="3" spans="1:2" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="40"/>
     </row>
-    <row r="4" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="36" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="33" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="33" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="36" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="33" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="36" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="33" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="36" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
